--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for an eligibility record</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for an eligibility record</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1207,44 +1207,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.69140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="32.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="32.59765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-eligibility.xlsx
+++ b/StructureDefinition-cdm-eligibility.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="283">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,7 +271,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -475,6 +475,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2498,13 +2502,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2555,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2573,7 +2577,7 @@
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2584,11 +2588,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2607,16 +2611,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2666,7 +2670,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2678,13 +2682,13 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2695,11 +2699,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2718,19 +2722,19 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2779,7 +2783,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2791,7 +2795,7 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
@@ -2808,7 +2812,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2831,13 +2835,13 @@
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2888,7 +2892,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>83</v>
@@ -2917,7 +2921,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2943,10 +2947,10 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2997,7 +3001,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>83</v>
@@ -3026,7 +3030,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3034,7 +3038,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -3052,10 +3056,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3094,19 +3098,19 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3118,7 +3122,7 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
@@ -3135,7 +3139,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3158,13 +3162,13 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3215,7 +3219,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3233,7 +3237,7 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3244,11 +3248,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3267,16 +3271,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3326,7 +3330,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3338,13 +3342,13 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3355,11 +3359,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3378,19 +3382,19 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3439,7 +3443,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3451,7 +3455,7 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
@@ -3468,7 +3472,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3494,10 +3498,10 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3548,7 +3552,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3577,7 +3581,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3603,13 +3607,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3659,7 +3663,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3688,7 +3692,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3711,13 +3715,13 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3768,7 +3772,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3797,7 +3801,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3823,10 +3827,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3877,7 +3881,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3886,7 +3890,7 @@
         <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3906,7 +3910,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3929,13 +3933,13 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3986,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4004,7 +4008,7 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4015,11 +4019,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4038,16 +4042,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4097,7 +4101,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4109,13 +4113,13 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4126,11 +4130,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4149,19 +4153,19 @@
         <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4210,7 +4214,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4222,7 +4226,7 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
@@ -4239,7 +4243,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4265,13 +4269,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4300,10 +4304,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4321,7 +4325,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4350,7 +4354,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4373,16 +4377,16 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4432,7 +4436,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4461,7 +4465,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4487,10 +4491,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4541,7 +4545,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4550,7 +4554,7 @@
         <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4570,7 +4574,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4593,13 +4597,13 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4650,7 +4654,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4668,7 +4672,7 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4679,11 +4683,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4702,16 +4706,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4761,7 +4765,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4773,13 +4777,13 @@
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -4790,11 +4794,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4813,19 +4817,19 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -4874,7 +4878,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4886,7 +4890,7 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>74</v>
@@ -4903,7 +4907,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4929,10 +4933,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4962,10 +4966,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -4983,7 +4987,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>83</v>
@@ -5012,7 +5016,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5038,13 +5042,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5094,7 +5098,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>83</v>
@@ -5123,7 +5127,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5146,13 +5150,13 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5203,7 +5207,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5232,7 +5236,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5258,10 +5262,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5312,7 +5316,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5341,7 +5345,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5364,13 +5368,13 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5421,7 +5425,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5450,7 +5454,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5473,13 +5477,13 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5530,7 +5534,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5559,7 +5563,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5585,10 +5589,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5639,7 +5643,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5648,7 +5652,7 @@
         <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5668,7 +5672,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5691,13 +5695,13 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5748,7 +5752,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -5766,7 +5770,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5777,11 +5781,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5800,16 +5804,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5859,7 +5863,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -5871,13 +5875,13 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -5888,11 +5892,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5911,19 +5915,19 @@
         <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -5972,7 +5976,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -5984,7 +5988,7 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
@@ -6001,7 +6005,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6024,13 +6028,13 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6081,7 +6085,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>83</v>
@@ -6110,7 +6114,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6136,10 +6140,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6190,7 +6194,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6219,7 +6223,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6242,16 +6246,16 @@
         <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6301,7 +6305,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6330,7 +6334,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6356,13 +6360,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6412,7 +6416,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6441,7 +6445,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6464,16 +6468,16 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6523,7 +6527,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6552,10 +6556,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>74</v>
@@ -6580,10 +6584,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6634,7 +6638,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6646,7 +6650,7 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
@@ -6663,7 +6667,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6686,13 +6690,13 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6743,7 +6747,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6761,7 +6765,7 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -6772,11 +6776,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6795,16 +6799,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6854,7 +6858,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -6866,13 +6870,13 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -6883,11 +6887,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6906,19 +6910,19 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -6967,7 +6971,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -6979,7 +6983,7 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>74</v>
@@ -6996,7 +7000,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7022,10 +7026,10 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7076,7 +7080,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7105,7 +7109,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7131,13 +7135,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7187,7 +7191,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7216,7 +7220,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7239,16 +7243,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7298,7 +7302,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7310,13 +7314,13 @@
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7327,7 +7331,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7353,10 +7357,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7407,7 +7411,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7416,7 +7420,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7436,7 +7440,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7459,13 +7463,13 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7516,7 +7520,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7534,7 +7538,7 @@
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7545,11 +7549,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7568,16 +7572,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7627,7 +7631,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -7639,13 +7643,13 @@
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7656,11 +7660,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7679,19 +7683,19 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -7740,7 +7744,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7752,7 +7756,7 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>74</v>
@@ -7769,7 +7773,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7795,13 +7799,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7830,10 +7834,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>74</v>
@@ -7851,7 +7855,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -7880,7 +7884,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7903,16 +7907,16 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7962,7 +7966,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -7991,7 +7995,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8017,10 +8021,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8071,7 +8075,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8080,7 +8084,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8100,7 +8104,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8123,13 +8127,13 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8180,7 +8184,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8198,7 +8202,7 @@
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8209,11 +8213,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8232,16 +8236,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8291,7 +8295,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8303,13 +8307,13 @@
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8320,11 +8324,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8343,19 +8347,19 @@
         <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8404,7 +8408,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8416,7 +8420,7 @@
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>74</v>
@@ -8433,7 +8437,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8459,10 +8463,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8492,10 +8496,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>74</v>
@@ -8513,7 +8517,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>83</v>
@@ -8542,7 +8546,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8568,13 +8572,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8624,7 +8628,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>83</v>
@@ -8653,7 +8657,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8676,13 +8680,13 @@
         <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8733,7 +8737,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -8762,7 +8766,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8788,10 +8792,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8842,7 +8846,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -8871,7 +8875,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8894,13 +8898,13 @@
         <v>84</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8951,7 +8955,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -8980,7 +8984,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9003,13 +9007,13 @@
         <v>84</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9060,7 +9064,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9089,7 +9093,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9115,10 +9119,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9169,7 +9173,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9178,7 +9182,7 @@
         <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9198,7 +9202,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9221,13 +9225,13 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9278,7 +9282,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9296,7 +9300,7 @@
         <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -9307,11 +9311,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9330,16 +9334,16 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9389,7 +9393,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9401,13 +9405,13 @@
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -9418,11 +9422,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9441,19 +9445,19 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
@@ -9502,7 +9506,7 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -9514,7 +9518,7 @@
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>74</v>
@@ -9531,7 +9535,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9554,13 +9558,13 @@
         <v>84</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9611,7 +9615,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>83</v>
@@ -9640,7 +9644,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9666,10 +9670,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9720,7 +9724,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -9749,7 +9753,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9772,16 +9776,16 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9831,7 +9835,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -9860,7 +9864,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9886,13 +9890,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9942,7 +9946,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -9971,7 +9975,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9994,16 +9998,16 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10053,7 +10057,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10082,10 +10086,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>74</v>
@@ -10110,10 +10114,10 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10164,7 +10168,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10176,7 +10180,7 @@
         <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>74</v>
@@ -10193,7 +10197,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10216,13 +10220,13 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10273,7 +10277,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10291,7 +10295,7 @@
         <v>74</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -10302,11 +10306,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10325,16 +10329,16 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10384,7 +10388,7 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -10396,13 +10400,13 @@
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
@@ -10413,11 +10417,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10436,19 +10440,19 @@
         <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>74</v>
@@ -10497,7 +10501,7 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -10509,7 +10513,7 @@
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>74</v>
@@ -10526,7 +10530,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10552,10 +10556,10 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10606,7 +10610,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -10635,7 +10639,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10661,13 +10665,13 @@
         <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10717,7 +10721,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -10746,7 +10750,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10769,13 +10773,13 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10826,7 +10830,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -10838,13 +10842,13 @@
         <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>74</v>
@@ -10855,7 +10859,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10881,10 +10885,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10935,7 +10939,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -10944,7 +10948,7 @@
         <v>83</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>96</v>
@@ -10964,7 +10968,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10987,13 +10991,13 @@
         <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11044,7 +11048,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11062,7 +11066,7 @@
         <v>74</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
@@ -11073,11 +11077,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11096,16 +11100,16 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11155,7 +11159,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11167,13 +11171,13 @@
         <v>74</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -11184,11 +11188,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11207,19 +11211,19 @@
         <v>84</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>74</v>
@@ -11268,7 +11272,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11280,7 +11284,7 @@
         <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>74</v>
@@ -11297,7 +11301,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11323,13 +11327,13 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11358,10 +11362,10 @@
         <v>124</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>74</v>
@@ -11379,7 +11383,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11408,7 +11412,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11431,16 +11435,16 @@
         <v>84</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11490,7 +11494,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -11519,7 +11523,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11545,10 +11549,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11599,7 +11603,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -11608,7 +11612,7 @@
         <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11628,7 +11632,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11651,13 +11655,13 @@
         <v>74</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11708,7 +11712,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -11726,7 +11730,7 @@
         <v>74</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
@@ -11737,11 +11741,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11760,16 +11764,16 @@
         <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11819,7 +11823,7 @@
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
@@ -11831,13 +11835,13 @@
         <v>74</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>74</v>
@@ -11848,11 +11852,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11871,19 +11875,19 @@
         <v>84</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>74</v>
@@ -11932,7 +11936,7 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -11944,7 +11948,7 @@
         <v>74</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>74</v>
@@ -11961,7 +11965,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11987,10 +11991,10 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12020,10 +12024,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>74</v>
@@ -12041,7 +12045,7 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>83</v>
@@ -12070,7 +12074,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12096,13 +12100,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12152,7 +12156,7 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>83</v>
@@ -12181,7 +12185,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12204,13 +12208,13 @@
         <v>84</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12261,7 +12265,7 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -12290,7 +12294,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12316,10 +12320,10 @@
         <v>129</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12370,7 +12374,7 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -12399,7 +12403,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12422,13 +12426,13 @@
         <v>84</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12479,7 +12483,7 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -12508,7 +12512,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12531,13 +12535,13 @@
         <v>84</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12588,7 +12592,7 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -12617,7 +12621,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12643,10 +12647,10 @@
         <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12697,7 +12701,7 @@
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -12706,7 +12710,7 @@
         <v>83</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>96</v>
@@ -12726,7 +12730,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12749,13 +12753,13 @@
         <v>74</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12806,7 +12810,7 @@
         <v>74</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -12824,7 +12828,7 @@
         <v>74</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>74</v>
@@ -12835,11 +12839,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12858,16 +12862,16 @@
         <v>74</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -12917,7 +12921,7 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -12929,13 +12933,13 @@
         <v>74</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>74</v>
@@ -12946,11 +12950,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -12969,19 +12973,19 @@
         <v>84</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>74</v>
@@ -13030,7 +13034,7 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -13042,7 +13046,7 @@
         <v>74</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>74</v>
@@ -13059,7 +13063,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13082,13 +13086,13 @@
         <v>84</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13139,7 +13143,7 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>83</v>
@@ -13168,7 +13172,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13194,10 +13198,10 @@
         <v>98</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13248,7 +13252,7 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -13277,7 +13281,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13300,16 +13304,16 @@
         <v>84</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13359,7 +13363,7 @@
         <v>74</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -13388,7 +13392,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13414,13 +13418,13 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13470,7 +13474,7 @@
         <v>74</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -13499,7 +13503,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13522,16 +13526,16 @@
         <v>84</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13581,7 +13585,7 @@
         <v>74</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -13610,10 +13614,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>74</v>
@@ -13638,10 +13642,10 @@
         <v>142</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13692,7 +13696,7 @@
         <v>74</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -13704,7 +13708,7 @@
         <v>74</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>74</v>
@@ -13721,7 +13725,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13744,13 +13748,13 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -13801,7 +13805,7 @@
         <v>74</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -13819,7 +13823,7 @@
         <v>74</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>74</v>
@@ -13830,11 +13834,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -13853,16 +13857,16 @@
         <v>74</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -13912,7 +13916,7 @@
         <v>74</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
@@ -13924,13 +13928,13 @@
         <v>74</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>74</v>
@@ -13941,11 +13945,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -13964,19 +13968,19 @@
         <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>74</v>
@@ -14025,7 +14029,7 @@
         <v>74</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -14037,7 +14041,7 @@
         <v>74</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>74</v>
@@ -14054,7 +14058,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14080,10 +14084,10 @@
         <v>74</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14134,7 +14138,7 @@
         <v>74</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -14163,7 +14167,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14189,13 +14193,13 @@
         <v>98</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14245,7 +14249,7 @@
         <v>74</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -14274,7 +14278,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14297,13 +14301,13 @@
         <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14354,7 +14358,7 @@
         <v>74</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -14383,7 +14387,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14409,10 +14413,10 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14463,7 +14467,7 @@
         <v>74</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -14472,7 +14476,7 @@
         <v>83</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>96</v>
@@ -14492,7 +14496,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14515,13 +14519,13 @@
         <v>74</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14572,7 +14576,7 @@
         <v>74</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -14590,7 +14594,7 @@
         <v>74</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>74</v>
@@ -14601,11 +14605,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -14624,16 +14628,16 @@
         <v>74</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14683,7 +14687,7 @@
         <v>74</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -14695,13 +14699,13 @@
         <v>74</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>74</v>
@@ -14712,11 +14716,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -14735,19 +14739,19 @@
         <v>84</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>74</v>
@@ -14796,7 +14800,7 @@
         <v>74</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
@@ -14808,7 +14812,7 @@
         <v>74</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>74</v>
@@ -14825,7 +14829,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14851,13 +14855,13 @@
         <v>104</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14886,10 +14890,10 @@
         <v>124</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>74</v>
@@ -14907,7 +14911,7 @@
         <v>74</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
@@ -14936,7 +14940,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -14959,16 +14963,16 @@
         <v>84</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15018,7 +15022,7 @@
         <v>74</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -15047,7 +15051,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15073,10 +15077,10 @@
         <v>142</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15127,7 +15131,7 @@
         <v>74</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -15136,7 +15140,7 @@
         <v>83</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>96</v>
@@ -15156,7 +15160,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15179,13 +15183,13 @@
         <v>74</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15236,7 +15240,7 @@
         <v>74</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -15254,7 +15258,7 @@
         <v>74</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>74</v>
@@ -15265,11 +15269,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15288,16 +15292,16 @@
         <v>74</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -15347,7 +15351,7 @@
         <v>74</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
@@ -15359,13 +15363,13 @@
         <v>74</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>74</v>
@@ -15376,11 +15380,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15399,19 +15403,19 @@
         <v>84</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>74</v>
@@ -15460,7 +15464,7 @@
         <v>74</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -15472,7 +15476,7 @@
         <v>74</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>74</v>
@@ -15489,7 +15493,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15515,10 +15519,10 @@
         <v>104</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15548,10 +15552,10 @@
         <v>124</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>74</v>
@@ -15569,7 +15573,7 @@
         <v>74</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>83</v>
@@ -15598,7 +15602,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15624,13 +15628,13 @@
         <v>98</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15680,7 +15684,7 @@
         <v>74</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>83</v>
@@ -15709,7 +15713,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15732,13 +15736,13 @@
         <v>84</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15789,7 +15793,7 @@
         <v>74</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
@@ -15818,7 +15822,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15844,10 +15848,10 @@
         <v>129</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15898,7 +15902,7 @@
         <v>74</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>75</v>
@@ -15927,7 +15931,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15950,13 +15954,13 @@
         <v>84</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16007,7 +16011,7 @@
         <v>74</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>75</v>
@@ -16036,7 +16040,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16059,13 +16063,13 @@
         <v>84</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16116,7 +16120,7 @@
         <v>74</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
@@ -16145,7 +16149,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16171,10 +16175,10 @@
         <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16225,7 +16229,7 @@
         <v>74</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>75</v>
@@ -16234,7 +16238,7 @@
         <v>83</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>96</v>
@@ -16254,7 +16258,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16277,13 +16281,13 @@
         <v>74</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16334,7 +16338,7 @@
         <v>74</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>75</v>
@@ -16352,7 +16356,7 @@
         <v>74</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>74</v>
@@ -16363,11 +16367,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16386,16 +16390,16 @@
         <v>74</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -16445,7 +16449,7 @@
         <v>74</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -16457,13 +16461,13 @@
         <v>74</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>74</v>
@@ -16474,11 +16478,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16497,19 +16501,19 @@
         <v>84</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>74</v>
@@ -16558,7 +16562,7 @@
         <v>74</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>75</v>
@@ -16570,7 +16574,7 @@
         <v>74</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>74</v>
@@ -16587,7 +16591,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16610,13 +16614,13 @@
         <v>84</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16667,7 +16671,7 @@
         <v>74</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>83</v>
@@ -16696,7 +16700,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16722,10 +16726,10 @@
         <v>98</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16776,7 +16780,7 @@
         <v>74</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>75</v>
@@ -16805,7 +16809,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16828,16 +16832,16 @@
         <v>84</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -16887,7 +16891,7 @@
         <v>74</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
@@ -16916,7 +16920,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16942,13 +16946,13 @@
         <v>129</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -16998,7 +17002,7 @@
         <v>74</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
@@ -17027,7 +17031,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17050,16 +17054,16 @@
         <v>84</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -17109,7 +17113,7 @@
         <v>74</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>75</v>
@@ -17138,7 +17142,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17161,19 +17165,19 @@
         <v>84</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>74</v>
@@ -17222,7 +17226,7 @@
         <v>74</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>75</v>
